--- a/files/excelFilesforFigures/Figure8.xlsx
+++ b/files/excelFilesforFigures/Figure8.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2908EDA6-DB10-45A0-8883-C6C1AA70E86D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D4A45F-AB1A-4C43-9522-3E5B506B5DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,49 +203,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-201</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>3364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>429</c:v>
+                  <c:v>5301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775</c:v>
+                  <c:v>7087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>872</c:v>
+                  <c:v>8798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>918</c:v>
+                  <c:v>9917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>978</c:v>
+                  <c:v>10419</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1017</c:v>
+                  <c:v>10991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1046</c:v>
+                  <c:v>11238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1049</c:v>
+                  <c:v>11704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1231</c:v>
+                  <c:v>12112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1105</c:v>
+                  <c:v>12317</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1107</c:v>
+                  <c:v>12730</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1135</c:v>
+                  <c:v>12831</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1135</c:v>
+                  <c:v>12865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,49 +371,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.95</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.34</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,49 +524,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.94</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.71</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="A3" sqref="A3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,13 +1929,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-201</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="1">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="D3" s="1">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,13 +1943,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>147</v>
+        <v>3364</v>
       </c>
       <c r="C4" s="1">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,13 +1957,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>429</v>
+        <v>5301</v>
       </c>
       <c r="C5" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,13 +1971,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>775</v>
+        <v>7087</v>
       </c>
       <c r="C6" s="1">
-        <v>0.42</v>
+        <v>0.69</v>
       </c>
       <c r="D6" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>872</v>
+        <v>8798</v>
       </c>
       <c r="C7" s="1">
-        <v>0.41</v>
+        <v>0.69</v>
       </c>
       <c r="D7" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,13 +1999,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>918</v>
+        <v>9917</v>
       </c>
       <c r="C8" s="1">
-        <v>0.38</v>
+        <v>0.65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,13 +2013,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>978</v>
+        <v>10419</v>
       </c>
       <c r="C9" s="1">
-        <v>0.37</v>
+        <v>0.64</v>
       </c>
       <c r="D9" s="1">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,13 +2027,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1017</v>
+        <v>10991</v>
       </c>
       <c r="C10" s="1">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
       <c r="D10" s="1">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,13 +2041,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1046</v>
+        <v>11238</v>
       </c>
       <c r="C11" s="1">
-        <v>0.36</v>
+        <v>0.63</v>
       </c>
       <c r="D11" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,13 +2055,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1049</v>
+        <v>11704</v>
       </c>
       <c r="C12" s="1">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
       <c r="D12" s="1">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,13 +2069,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1231</v>
+        <v>12112</v>
       </c>
       <c r="C13" s="1">
-        <v>0.35</v>
+        <v>0.63</v>
       </c>
       <c r="D13" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +2083,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1105</v>
+        <v>12317</v>
       </c>
       <c r="C14" s="1">
-        <v>0.35</v>
+        <v>0.63</v>
       </c>
       <c r="D14" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,13 +2097,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1107</v>
+        <v>12730</v>
       </c>
       <c r="C15" s="1">
-        <v>0.35</v>
+        <v>0.63</v>
       </c>
       <c r="D15" s="1">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,13 +2111,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1135</v>
+        <v>12831</v>
       </c>
       <c r="C16" s="1">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="D16" s="1">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,13 +2125,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1135</v>
+        <v>12865</v>
       </c>
       <c r="C17" s="1">
-        <v>0.34</v>
+        <v>0.62</v>
       </c>
       <c r="D17" s="1">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>

--- a/files/excelFilesforFigures/Figure8.xlsx
+++ b/files/excelFilesforFigures/Figure8.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D4A45F-AB1A-4C43-9522-3E5B506B5DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF731EFC-2F3C-4249-9A50-CED8CC9C1D9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>UBF</t>
+  </si>
   <si>
     <t>SSR</t>
   </si>
@@ -28,18 +31,59 @@
     <t>ARF</t>
   </si>
   <si>
-    <t>LUBF</t>
+    <t>SSR (normalized)</t>
+  </si>
+  <si>
+    <t>LUBF (normalized)</t>
   </si>
   <si>
     <t>FTS</t>
+  </si>
+  <si>
+    <t>FTS(normalized)</t>
+  </si>
+  <si>
+    <t>TPAT</t>
+  </si>
+  <si>
+    <t>TPAT(normalized)</t>
+  </si>
+  <si>
+    <t>SUT1</t>
+  </si>
+  <si>
+    <t>DO NOT ERASE BELOW</t>
+  </si>
+  <si>
+    <t>SUT2-HARF</t>
+  </si>
+  <si>
+    <t>SUT2-OARF</t>
+  </si>
+  <si>
+    <t>SUT1a-HARF/OARF</t>
+  </si>
+  <si>
+    <t>SUT2a-HARF</t>
+  </si>
+  <si>
+    <t>SUT2a-OARF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +113,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,185 +147,111 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11853314692231674"/>
-          <c:y val="6.1935475480758548E-2"/>
-          <c:w val="0.76856672057562359"/>
-          <c:h val="0.87244597443793437"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$2</c:f>
+              <c:f>Feuil1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUBF</c:v>
+                  <c:v>SUT1a-HARF/OARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$A$3:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+            <c:strRef>
+              <c:f>Feuil1!$B$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>ARF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>LUBF (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>SSR (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>FTS(normalized)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>TPAT(normalized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$3:$B$17</c:f>
+              <c:f>Feuil1!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1380</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3364</c:v>
+                  <c:v>6.2759338557763114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5301</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7087</c:v>
+                  <c:v>8.9649019086198205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9917</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10419</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11238</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12112</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12317</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12730</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12831</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12865</c:v>
+                  <c:v>7.3423791752501941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24CC-48D2-A666-7ABA3C710C4E}"/>
+              <c16:uniqueId val="{00000000-E20E-4AA6-8EEE-5ED36BC62115}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1188160128"/>
-        <c:axId val="1185336880"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$2</c:f>
+              <c:f>Feuil1!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SSR</c:v>
+                  <c:v>SUT2a-HARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -296,7 +266,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -311,117 +281,55 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$A$3:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+            <c:strRef>
+              <c:f>Feuil1!$B$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>ARF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>LUBF (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>SSR (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>FTS(normalized)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>TPAT(normalized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$3:$C$17</c:f>
+              <c:f>Feuil1!$B$11:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>8.8356470077673084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>8.7069767441860435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69</c:v>
+                  <c:v>8.9699527415114026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.62</c:v>
+                  <c:v>8.7496364709142842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-24CC-48D2-A666-7ABA3C710C4E}"/>
+              <c16:uniqueId val="{00000001-E20E-4AA6-8EEE-5ED36BC62115}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -430,11 +338,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$2</c:f>
+              <c:f>Feuil1!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FTS</c:v>
+                  <c:v>SUT2a-OARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -449,7 +357,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -464,117 +372,55 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$A$3:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+            <c:strRef>
+              <c:f>Feuil1!$B$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>ARF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>LUBF (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>SSR (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>FTS(normalized)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>TPAT(normalized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$3:$D$17</c:f>
+              <c:f>Feuil1!$B$12:$F$12</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78</c:v>
+                  <c:v>8.748837209302323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.69</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E84-4319-9E54-8D7A9A4829CF}"/>
+              <c16:uniqueId val="{00000000-1CB7-4B01-BAA5-B9C396742660}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -586,76 +432,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1130139264"/>
-        <c:axId val="1185338128"/>
-      </c:lineChart>
+        <c:axId val="976732784"/>
+        <c:axId val="1052710768"/>
+      </c:radarChart>
       <c:catAx>
-        <c:axId val="1188160128"/>
+        <c:axId val="976732784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>ARF (Arrival Rate Factor)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -693,7 +479,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185336880"/>
+        <c:crossAx val="1052710768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185336880"/>
+        <c:axId val="1052710768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,71 +507,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>LUBF</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (Long-term Unit Benefit Factor (cents/second)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -817,147 +538,10 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188160128"/>
+        <c:crossAx val="976732784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="1185338128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>SSR</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (SLO Satisfaction Rate) / FTS (Fairness between the Tenants' Satisfcaction)</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR" sz="600">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.94637793681073445"/>
-              <c:y val="0.18577352750027057"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1130139264"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1130139264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1185338128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -967,17 +551,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14769065840373463"/>
-          <c:y val="7.1431164652454179E-2"/>
-          <c:w val="0.34756456602214036"/>
-          <c:h val="4.524877732409479E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1092,7 +666,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1296,22 +870,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1416,8 +991,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1549,19 +1124,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1598,29 +1174,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485777</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Graphique 14">
+        <xdr:cNvPr id="11" name="Graphique 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0499D058-0E51-480E-83DC-3BBF8993BDD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CD7084-7C28-4D9D-86D6-BAAD41CF47FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1900,238 +1474,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5251.24317236968</v>
+      </c>
+      <c r="D2">
+        <v>0.74137931034482696</v>
+      </c>
+      <c r="E2">
+        <v>0.77732082744372699</v>
+      </c>
+      <c r="F2">
+        <v>10078.146944444399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>7393.0242238455503</v>
+      </c>
+      <c r="D3">
+        <v>0.71724137931034404</v>
+      </c>
+      <c r="E3">
+        <v>0.77775877061840804</v>
+      </c>
+      <c r="F3">
+        <v>8457.2172222222198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>7530.5428064427997</v>
+      </c>
+      <c r="D4">
+        <v>0.72068965517241301</v>
+      </c>
+      <c r="E4">
+        <v>0.78036408187210005</v>
+      </c>
+      <c r="F4">
+        <v>8221.9529166666598</v>
+      </c>
+      <c r="H4">
+        <f>(F3-F4)/F3</f>
+        <v>2.7818169898412744E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1380</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.92</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f>B2</f>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:D12" si="0">C2/MAX(C$2:C$6)*MAX($B$10:$B$13)</f>
+        <v>6.2759338557763114</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f>E2/MAX(E2:E6)*MAX($B$10:$B$13)</f>
+        <v>8.9649019086198205</v>
+      </c>
+      <c r="F10">
+        <f>MIN(F$2:F$6)/F2*MAX($B$10:$B$13)</f>
+        <v>7.3423791752501941</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3364</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.82</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f>B3</f>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>8.8356470077673084</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>8.7069767441860435</v>
+      </c>
+      <c r="E11">
+        <f>E3/MAX(E3:E7)*MAX($B$10:$B$13)</f>
+        <v>8.9699527415114026</v>
+      </c>
+      <c r="F11">
+        <f>MIN(F$2:F$6)/F3*MAX($B$10:$B$13)</f>
+        <v>8.7496364709142842</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5301</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>7087</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>8798</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>9917</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10419</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <f>B4</f>
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>10991</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C12">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>11238</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11704</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12112</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12317</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>12730</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>12831</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>12865</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.69</v>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>8.748837209302323</v>
+      </c>
+      <c r="E12">
+        <f>E4/MAX(E4:E8)*MAX($B$10:$B$13)</f>
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <f>MIN(F$2:F$6)/F4*MAX($B$10:$B$13)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
